--- a/Finanse.xlsx
+++ b/Finanse.xlsx
@@ -8,12 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\my-projects\PythonDataScience\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77F2B7BC-78F2-40A1-89DD-59A67BE17D19}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{055EB485-CC52-4A5E-8108-5E71124A1998}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-135" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Grudzien 2022" sheetId="1" r:id="rId1"/>
+    <sheet name="Luty 2023" sheetId="4" r:id="rId1"/>
+    <sheet name="Styczeń 2023" sheetId="3" r:id="rId2"/>
+    <sheet name="Grudzien 2022" sheetId="1" r:id="rId3"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="28">
   <si>
     <t>Oplaty</t>
   </si>
@@ -94,6 +97,30 @@
   </si>
   <si>
     <t>czynsz 407.18</t>
+  </si>
+  <si>
+    <t>prad 259.35</t>
+  </si>
+  <si>
+    <t>woda 96.45</t>
+  </si>
+  <si>
+    <t>Prąd</t>
+  </si>
+  <si>
+    <t>Woda</t>
+  </si>
+  <si>
+    <t>Od Karoliny</t>
+  </si>
+  <si>
+    <t>Suma za mieszkanie</t>
+  </si>
+  <si>
+    <t>Czynsz</t>
+  </si>
+  <si>
+    <t>Suma wydatkow</t>
   </si>
 </sst>
 </file>
@@ -138,7 +165,37 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="5">
+  <dxfs count="15">
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -168,12 +225,36 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{E9BB0DFA-EEC5-4F92-8B7C-AF36623D939E}" name="Table1" displayName="Table1" ref="A1:C19" totalsRowShown="0" headerRowDxfId="4" dataDxfId="3">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{ABECF6DC-60CE-4EE6-9CDD-511844EC340A}" name="Table134" displayName="Table134" ref="A1:C23" totalsRowShown="0" headerRowDxfId="4" dataDxfId="3">
+  <autoFilter ref="A1:C23" xr:uid="{E9BB0DFA-EEC5-4F92-8B7C-AF36623D939E}"/>
+  <tableColumns count="3">
+    <tableColumn id="1" xr3:uid="{984C9865-5AF6-498A-83ED-C5A1D3BDCCAB}" name="Oplaty" dataDxfId="2"/>
+    <tableColumn id="2" xr3:uid="{C8339424-8189-4EAB-A62C-AF5D4D21B0A8}" name="Kwota" dataDxfId="1"/>
+    <tableColumn id="3" xr3:uid="{F78D650D-76E1-46D4-B3BC-0A058153279B}" name="Column1" dataDxfId="0"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleDark2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{5AE6A0E2-356E-4AEB-9A1A-881113F424F4}" name="Table13" displayName="Table13" ref="A1:C23" totalsRowShown="0" headerRowDxfId="14" dataDxfId="13">
+  <autoFilter ref="A1:C23" xr:uid="{E9BB0DFA-EEC5-4F92-8B7C-AF36623D939E}"/>
+  <tableColumns count="3">
+    <tableColumn id="1" xr3:uid="{67962876-7366-4D37-B133-190A91C02602}" name="Oplaty" dataDxfId="12"/>
+    <tableColumn id="2" xr3:uid="{E493C242-4FAE-42B8-B37F-402265C72EA3}" name="Kwota" dataDxfId="11"/>
+    <tableColumn id="3" xr3:uid="{0A05F23F-08E1-41D0-AE8C-8C38E82142E9}" name="Column1" dataDxfId="10"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleDark2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{E9BB0DFA-EEC5-4F92-8B7C-AF36623D939E}" name="Table1" displayName="Table1" ref="A1:C19" totalsRowShown="0" headerRowDxfId="9" dataDxfId="8">
   <autoFilter ref="A1:C19" xr:uid="{E9BB0DFA-EEC5-4F92-8B7C-AF36623D939E}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{72A0B14D-59E4-4E57-914D-75755A26322E}" name="Oplaty" dataDxfId="2"/>
-    <tableColumn id="2" xr3:uid="{7EC22FB6-7879-4C2F-B152-E64866CCF9D6}" name="Kwota" dataDxfId="1"/>
-    <tableColumn id="3" xr3:uid="{37E3495F-3002-4D9A-98A5-EDEAD1681C10}" name="Column1" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{72A0B14D-59E4-4E57-914D-75755A26322E}" name="Oplaty" dataDxfId="7"/>
+    <tableColumn id="2" xr3:uid="{7EC22FB6-7879-4C2F-B152-E64866CCF9D6}" name="Kwota" dataDxfId="6"/>
+    <tableColumn id="3" xr3:uid="{37E3495F-3002-4D9A-98A5-EDEAD1681C10}" name="Column1" dataDxfId="5"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleDark2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -441,21 +522,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F29"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D8B0BC2B-7657-4B7E-9776-5D40A99A4F66}">
+  <dimension ref="A1:F33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="20" customWidth="1"/>
     <col min="2" max="2" width="14" customWidth="1"/>
     <col min="6" max="6" width="23" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -466,231 +547,245 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B2" s="1">
-        <v>600</v>
-      </c>
-      <c r="C2" s="1">
-        <v>600</v>
-      </c>
+        <v>500</v>
+      </c>
+      <c r="C2" s="1"/>
       <c r="F2" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B3" s="1">
-        <v>1000</v>
-      </c>
-      <c r="C3" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="C3" s="1"/>
+      <c r="F3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>3</v>
+        <v>26</v>
       </c>
       <c r="B4" s="1">
-        <v>300</v>
-      </c>
-      <c r="C4" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="C4" s="1"/>
+      <c r="F4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B5" s="1">
+        <v>0</v>
+      </c>
+      <c r="C5" s="1"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B6" s="1">
+        <v>0</v>
+      </c>
+      <c r="C6" s="1"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="1">
-        <v>1000</v>
-      </c>
-      <c r="C5" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A6" s="1" t="s">
+      <c r="B7" s="1">
+        <v>780</v>
+      </c>
+      <c r="C7" s="1"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="1">
+      <c r="B8" s="1">
+        <v>200</v>
+      </c>
+      <c r="C8" s="1"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" s="1">
+        <v>240</v>
+      </c>
+      <c r="C9" s="1"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" s="1">
+        <v>160</v>
+      </c>
+      <c r="C10" s="1"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11" s="1">
+        <v>500</v>
+      </c>
+      <c r="C11" s="1"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B12" s="1">
+        <v>0</v>
+      </c>
+      <c r="C12" s="1"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B13" s="1">
+        <v>250</v>
+      </c>
+      <c r="C13" s="1"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B14" s="1">
+        <v>1300</v>
+      </c>
+      <c r="C14" s="1"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B15" s="1">
         <v>100</v>
       </c>
-      <c r="C6" s="1">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A7" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B7" s="1">
-        <v>240</v>
-      </c>
-      <c r="C7" s="1">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A8" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B8" s="1">
-        <v>160</v>
-      </c>
-      <c r="C8" s="1">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A9" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B9" s="1">
-        <v>600</v>
-      </c>
-      <c r="C9" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A10" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B10" s="1">
-        <v>240</v>
-      </c>
-      <c r="C10" s="1">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A11" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B11" s="1">
-        <v>400</v>
-      </c>
-      <c r="C11" s="1">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A12" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B12" s="1">
-        <v>1500</v>
-      </c>
-      <c r="C12" s="1"/>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A13" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B13" s="1">
-        <v>100</v>
-      </c>
-      <c r="C13" s="1">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A14" s="1" t="s">
+      <c r="C15" s="1"/>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B14" s="1">
-        <v>120</v>
-      </c>
-      <c r="C14" s="1">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A15" s="1"/>
-      <c r="B15" s="1"/>
-      <c r="C15" s="1"/>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A16" s="1"/>
-      <c r="B16" s="1"/>
+      <c r="B16" s="1">
+        <v>0</v>
+      </c>
       <c r="C16" s="1"/>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A17" s="1" t="s">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="1"/>
+      <c r="B17" s="1"/>
+      <c r="C17" s="1"/>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" s="1"/>
+      <c r="B18" s="1"/>
+      <c r="C18" s="1"/>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B17" s="1">
-        <f>B18-B19</f>
-        <v>6030</v>
-      </c>
-      <c r="C17" s="1"/>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A18" s="1" t="s">
+      <c r="B19" s="1">
+        <f>B21-B23 +B20</f>
+        <v>7970</v>
+      </c>
+      <c r="C19" s="1"/>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B20" s="1"/>
+      <c r="C20" s="1"/>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B18" s="1">
-        <v>12390</v>
-      </c>
-      <c r="C18" s="1"/>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B19" s="1">
-        <f>SUM(B2:B15)</f>
-        <v>6360</v>
-      </c>
-      <c r="C19" s="1">
-        <f>SUM(C2:C14)</f>
-        <v>1760</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-      <c r="B20" s="1"/>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="1"/>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A22" s="1"/>
-      <c r="B22" s="1"/>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A23" s="1"/>
-      <c r="B23" s="1"/>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B21" s="1">
+        <v>12000</v>
+      </c>
+      <c r="C21" s="1"/>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B22" s="1">
+        <f>SUM(B3:B5)</f>
+        <v>0</v>
+      </c>
+      <c r="C22" s="1"/>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B23" s="1">
+        <f>SUM(B2:B17)</f>
+        <v>4030</v>
+      </c>
+      <c r="C23" s="1"/>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="1"/>
       <c r="B24" s="1"/>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="1"/>
       <c r="B25" s="1"/>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="1"/>
       <c r="B26" s="1"/>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="1"/>
       <c r="B27" s="1"/>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="1"/>
       <c r="B28" s="1"/>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" s="1"/>
       <c r="B29" s="1"/>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" s="1"/>
+      <c r="B30" s="1"/>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31" s="1"/>
+      <c r="B31" s="1"/>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32" s="1"/>
+      <c r="B32" s="1"/>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" s="1"/>
+      <c r="B33" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -702,4 +797,591 @@
     <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F4E0712-A29B-4D1F-BBA2-A8A4B855F91D}">
+  <dimension ref="A1:F33"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E21" sqref="E21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="20" customWidth="1"/>
+    <col min="2" max="2" width="14" customWidth="1"/>
+    <col min="6" max="6" width="23" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" s="1">
+        <v>640</v>
+      </c>
+      <c r="C2" s="1">
+        <v>600</v>
+      </c>
+      <c r="F2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1">
+        <v>1300</v>
+      </c>
+      <c r="C3" s="1">
+        <v>0</v>
+      </c>
+      <c r="F3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B4" s="1">
+        <v>407.18</v>
+      </c>
+      <c r="C4" s="1"/>
+      <c r="F4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B5" s="1">
+        <v>259.35000000000002</v>
+      </c>
+      <c r="C5" s="1"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B6" s="1">
+        <v>96.45</v>
+      </c>
+      <c r="C6" s="1"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" s="1">
+        <v>1000</v>
+      </c>
+      <c r="C7" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" s="1">
+        <v>100</v>
+      </c>
+      <c r="C8" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" s="1">
+        <v>240</v>
+      </c>
+      <c r="C9" s="1">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" s="1">
+        <v>160</v>
+      </c>
+      <c r="C10" s="1">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11" s="1">
+        <v>600</v>
+      </c>
+      <c r="C11" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B12" s="1">
+        <v>240</v>
+      </c>
+      <c r="C12" s="1">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B13" s="1">
+        <v>200</v>
+      </c>
+      <c r="C13" s="1">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B14" s="1">
+        <v>1500</v>
+      </c>
+      <c r="C14" s="1"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B15" s="1">
+        <v>100</v>
+      </c>
+      <c r="C15" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B16" s="1">
+        <v>120</v>
+      </c>
+      <c r="C16" s="1">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="1"/>
+      <c r="B17" s="1"/>
+      <c r="C17" s="1"/>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" s="1"/>
+      <c r="B18" s="1"/>
+      <c r="C18" s="1"/>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B19" s="1">
+        <f>B21-B23 +B20</f>
+        <v>7237.02</v>
+      </c>
+      <c r="C19" s="1"/>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B20" s="1">
+        <v>1000</v>
+      </c>
+      <c r="C20" s="1">
+        <v>-1000</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B21" s="1">
+        <v>13200</v>
+      </c>
+      <c r="C21" s="1"/>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B22" s="1">
+        <f>SUM(B3:B5)</f>
+        <v>1966.5300000000002</v>
+      </c>
+      <c r="C22" s="1"/>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B23" s="1">
+        <f>SUM(B2:B17)</f>
+        <v>6962.98</v>
+      </c>
+      <c r="C23" s="1">
+        <f>SUM(C2:C16)</f>
+        <v>1760</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" s="1"/>
+      <c r="B24" s="1"/>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" s="1"/>
+      <c r="B25" s="1"/>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" s="1"/>
+      <c r="B26" s="1"/>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" s="1"/>
+      <c r="B27" s="1"/>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" s="1"/>
+      <c r="B28" s="1"/>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" s="1"/>
+      <c r="B29" s="1"/>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" s="1"/>
+      <c r="B30" s="1"/>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31" s="1"/>
+      <c r="B31" s="1"/>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32" s="1"/>
+      <c r="B32" s="1"/>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" s="1"/>
+      <c r="B33" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" verticalDpi="300" r:id="rId1"/>
+  <headerFooter>
+    <oddHeader>&amp;R&amp;"Calibri"&amp;12&amp;KFF8C00CONFIDENTIAL &amp; RESTRICTED&amp;1#</oddHeader>
+  </headerFooter>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:F29"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="20" customWidth="1"/>
+    <col min="2" max="2" width="14" customWidth="1"/>
+    <col min="6" max="6" width="23" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" s="1">
+        <v>600</v>
+      </c>
+      <c r="C2" s="1">
+        <v>600</v>
+      </c>
+      <c r="F2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1">
+        <v>1000</v>
+      </c>
+      <c r="C3" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1">
+        <v>300</v>
+      </c>
+      <c r="C4" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1">
+        <v>1000</v>
+      </c>
+      <c r="C5" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="1">
+        <v>100</v>
+      </c>
+      <c r="C6" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" s="1">
+        <v>240</v>
+      </c>
+      <c r="C7" s="1">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" s="1">
+        <v>160</v>
+      </c>
+      <c r="C8" s="1">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9" s="1">
+        <v>600</v>
+      </c>
+      <c r="C9" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10" s="1">
+        <v>240</v>
+      </c>
+      <c r="C10" s="1">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B11" s="1">
+        <v>400</v>
+      </c>
+      <c r="C11" s="1">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B12" s="1">
+        <v>1500</v>
+      </c>
+      <c r="C12" s="1"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B13" s="1">
+        <v>100</v>
+      </c>
+      <c r="C13" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B14" s="1">
+        <v>120</v>
+      </c>
+      <c r="C14" s="1">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" s="1"/>
+      <c r="B15" s="1"/>
+      <c r="C15" s="1"/>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" s="1"/>
+      <c r="B16" s="1"/>
+      <c r="C16" s="1"/>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B17" s="1">
+        <f>B18-B19</f>
+        <v>6030</v>
+      </c>
+      <c r="C17" s="1"/>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B18" s="1">
+        <v>12390</v>
+      </c>
+      <c r="C18" s="1"/>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B19" s="1">
+        <f>SUM(B2:B15)</f>
+        <v>6360</v>
+      </c>
+      <c r="C19" s="1">
+        <f>SUM(C2:C14)</f>
+        <v>1760</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" s="1"/>
+      <c r="B20" s="1"/>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" s="1"/>
+      <c r="B21" s="1"/>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" s="1"/>
+      <c r="B22" s="1"/>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" s="1"/>
+      <c r="B23" s="1"/>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" s="1"/>
+      <c r="B24" s="1"/>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" s="1"/>
+      <c r="B25" s="1"/>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" s="1"/>
+      <c r="B26" s="1"/>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" s="1"/>
+      <c r="B27" s="1"/>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" s="1"/>
+      <c r="B28" s="1"/>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" s="1"/>
+      <c r="B29" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" verticalDpi="300" r:id="rId1"/>
+  <headerFooter>
+    <oddHeader>&amp;R&amp;"Calibri"&amp;12&amp;KFF8C00CONFIDENTIAL &amp; RESTRICTED&amp;1#</oddHeader>
+  </headerFooter>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{52DD07B0-94F1-45EC-A913-ED0AE0C1CB5E}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" verticalDpi="300" r:id="rId1"/>
+  <headerFooter>
+    <oddHeader>&amp;R&amp;"Calibri"&amp;12&amp;KFF8C00CONFIDENTIAL &amp; RESTRICTED&amp;1#</oddHeader>
+  </headerFooter>
+</worksheet>
 </file>